--- a/data/trans_camb/P14B24_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Dificultad-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>5.717256469343186</v>
+        <v>5.717256469343185</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.124292734929683</v>
+        <v>3.124292734929686</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>4.438883420551387</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.590968794656764</v>
+        <v>3.350610835280173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3808539604573171</v>
+        <v>0.5537713423291966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.648832675625581</v>
+        <v>2.584436398888016</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.587423791405849</v>
+        <v>8.397987954090876</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.018427634157922</v>
+        <v>5.871482705718599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.43980015495665</v>
+        <v>6.359974654734149</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>2.933264479807161</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4125318872715557</v>
+        <v>0.4125318872715561</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.9029010945245119</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.348996195482549</v>
+        <v>1.266542283133282</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0405278906365887</v>
+        <v>0.06190304721007586</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4636742318072423</v>
+        <v>0.4691406329025605</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.556440400923187</v>
+        <v>5.387712460204827</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9119090358778124</v>
+        <v>0.9189908241747144</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.458740337604883</v>
+        <v>1.447326741325507</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.8535948155284886</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.509157227020105</v>
+        <v>3.509157227020104</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>2.295561110755949</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.172472898929951</v>
+        <v>-0.1230235448540819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.046470319632396</v>
+        <v>2.073305500875168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.348871109402588</v>
+        <v>1.27237785327146</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.018228496509849</v>
+        <v>1.959796186671201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.205667354672602</v>
+        <v>4.963356250071939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.303236570400948</v>
+        <v>3.299436962837125</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1845614144904885</v>
+        <v>-0.1269360562757138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6266456918781227</v>
+        <v>0.6416302242448744</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6384747236038436</v>
+        <v>0.5583946799516589</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.46208774858707</v>
+        <v>4.280860197976947</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.121034198973564</v>
+        <v>3.048359624660925</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.703426174415227</v>
+        <v>2.76153256577279</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>0.9715593267737941</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.131956042305928</v>
+        <v>3.131956042305927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.076309808105926</v>
+        <v>2.076309808105927</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09060191911356089</v>
+        <v>0.1156685655544585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.471332544587208</v>
+        <v>1.333332666662157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.167481291783716</v>
+        <v>1.065061903021894</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.962134099134607</v>
+        <v>1.998709604617986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.742519546087891</v>
+        <v>4.955265637719024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.026452123038821</v>
+        <v>2.986326150814405</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>1.541524851244776</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.609868030137399</v>
+        <v>1.6098680301374</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09218595196993205</v>
+        <v>-0.02240537063727761</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4468638874432922</v>
+        <v>0.3836140518349235</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5683537137496585</v>
+        <v>0.5493751323506078</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.406444095213512</v>
+        <v>8.731472555817991</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.823399336743795</v>
+        <v>3.825917150624122</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.351946672069828</v>
+        <v>3.331805143565494</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.115371325677411</v>
+        <v>1.129732595797719</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6479576219988853</v>
+        <v>0.6876377757857359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.336898755230302</v>
+        <v>1.259393739228514</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.559388721146783</v>
+        <v>3.552648230750914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.219485749665886</v>
+        <v>4.00709684700421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.351732374093076</v>
+        <v>3.316752935009469</v>
       </c>
     </row>
     <row r="25">
@@ -951,10 +951,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>0.1165840891439281</v>
+        <v>0.117050983403745</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6270265887623584</v>
+        <v>0.704944501007771</v>
       </c>
     </row>
     <row r="27">
@@ -966,10 +966,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>3.527591031796173</v>
+        <v>3.509490153101923</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.868913306604943</v>
+        <v>5.1606885732643</v>
       </c>
     </row>
     <row r="28">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.607402651094535</v>
+        <v>1.607402651094536</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.075277380670756</v>
+        <v>2.075277380670755</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.858437713256121</v>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9808868327301219</v>
+        <v>0.9476404952007453</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.033152054518796</v>
+        <v>1.000160872768739</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.272162015699488</v>
+        <v>1.209580910436466</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.279080669275454</v>
+        <v>2.258135512796053</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.096010182832711</v>
+        <v>2.965534634663813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.45094304288334</v>
+        <v>2.457762401479489</v>
       </c>
     </row>
     <row r="31">
@@ -1038,10 +1038,10 @@
         <v>1.498962956044361</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.5060141809724511</v>
+        <v>0.5060141809724509</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7087792540505465</v>
+        <v>0.7087792540505462</v>
       </c>
     </row>
     <row r="32">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7294382923376522</v>
+        <v>0.6199787683535213</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2178497220143145</v>
+        <v>0.2161993590664072</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4265212523467758</v>
+        <v>0.4077379179165693</v>
       </c>
     </row>
     <row r="33">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.644865931504072</v>
+        <v>2.613440159255556</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8512454155572472</v>
+        <v>0.8325660906601207</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.045784779843731</v>
+        <v>1.046935400600534</v>
       </c>
     </row>
     <row r="34">
